--- a/ebegu-server/src/main/resources/reporting/Mitarbeiterinnen.xlsx
+++ b/ebegu-server/src/main/resources/reporting/Mitarbeiterinnen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\EBEGU Anpassung 2018\Namensänderung\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Mitarbeiterinnen Jugendamt</t>
-  </si>
-  <si>
     <t>Von</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>{repeatMitarbeiterinnenRow}</t>
+  </si>
+  <si>
+    <t>MitarbeiterInnen Familie &amp; Quartier Stadt Bern</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -491,19 +491,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
@@ -513,33 +513,33 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
